--- a/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:52:35+00:00</t>
+    <t>2025-07-21T11:59:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-21T11:59:07+00:00</t>
+    <t>2025-07-22T07:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
+++ b/nr-heritage-medicationrequest/ig/PN13-FHIR-prescmed-medicationrequest-conceptmap.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="342" uniqueCount="112">
   <si>
     <t>Property</t>
   </si>
@@ -72,7 +72,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-07-22T07:44:08+00:00</t>
+    <t>2025-07-23T07:26:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,37 +90,40 @@
     <t>Jurisdiction</t>
   </si>
   <si>
+    <t>FRANCE</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ConceptMap pour la conversion PN13 vers FHIR d'une ligne de prescription d'une prescritpion de médicament</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>Source</t>
+  </si>
+  <si>
+    <t>https://interopsante.org/pn13/xsd</t>
+  </si>
+  <si>
+    <t>Target</t>
+  </si>
+  <si>
+    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Relationship</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>ConceptMap pour la conversion PN13 vers FHIR d'une ligne de prescription d'une prescritpion de médicament</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Copyright</t>
-  </si>
-  <si>
-    <t>Source</t>
-  </si>
-  <si>
-    <t>https://interopsante.org/pn13/xsd</t>
-  </si>
-  <si>
-    <t>Target</t>
-  </si>
-  <si>
-    <t>https://hl7.fr/ig/fhir/medication/StructureDefinition/fr-inpatient-medicationrequest</t>
-  </si>
-  <si>
-    <t>Display</t>
-  </si>
-  <si>
-    <t>Relationship</t>
   </si>
   <si>
     <t>Messages@Phast-id_message</t>
@@ -659,26 +662,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -715,156 +718,156 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -901,26 +904,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -928,10 +931,10 @@
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -939,10 +942,10 @@
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -950,10 +953,10 @@
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -961,10 +964,10 @@
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -972,36 +975,36 @@
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1038,39 +1041,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1107,26 +1110,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1163,14 +1166,14 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -1206,26 +1209,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1262,26 +1265,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1318,65 +1321,65 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1413,156 +1416,156 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E10" s="2"/>
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E11" s="2"/>
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="E12" s="2"/>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E13" s="2"/>
     </row>
@@ -1599,39 +1602,39 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -1668,26 +1671,26 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" s="2"/>
     </row>
@@ -1724,117 +1727,117 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E8" s="2"/>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E9" s="2"/>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E10" s="2"/>
     </row>
@@ -1871,65 +1874,65 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -1966,52 +1969,52 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="E5" s="2"/>
     </row>
@@ -2048,87 +2051,87 @@
     <row r="2">
       <c r="A2" s="2"/>
       <c r="B2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" t="s" s="2">
-        <v>20</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="E5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B7" s="2"/>
       <c r="C7" t="s" s="2">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
     </row>
     <row r="8">
       <c r="A8" t="s" s="2">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B8" s="2"/>
       <c r="C8" t="s" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E8" s="2"/>
     </row>
